--- a/model_master.xlsx
+++ b/model_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\MASTER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\masterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D987519-C90B-4563-BEB6-66067788C811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD9F499-4593-4DC4-B48F-6F0933A959AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="180" windowWidth="21465" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="1275" windowWidth="17040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="483">
   <si>
     <t>모델명</t>
   </si>
@@ -1497,6 +1497,13 @@
   </si>
   <si>
     <t>R-C-MSK-1914</t>
+  </si>
+  <si>
+    <t>2105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-R-CIY-2105</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1588,6 +1595,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,10 +1937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C170" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71:A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4218,6 +4229,14 @@
       </c>
       <c r="B203" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B204" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/model_master.xlsx
+++ b/model_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\masterm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\masterm\Master_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD9F499-4593-4DC4-B48F-6F0933A959AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBAF11-1530-433D-9A20-47961B4673E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1275" windowWidth="17040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7755" yWindow="2535" windowWidth="17040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="489">
   <si>
     <t>모델명</t>
   </si>
@@ -1504,6 +1504,27 @@
   </si>
   <si>
     <t>R-R-CIY-2105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	R-R-MSK-2109</t>
+  </si>
+  <si>
+    <t>2109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XU101022-25014</t>
+  </si>
+  <si>
+    <t>20 Vdc, 2.25 A</t>
+  </si>
+  <si>
+    <t>확인중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1578,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1598,6 +1619,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1937,11 +1961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71:A204"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4237,6 +4261,40 @@
       </c>
       <c r="B204" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B205" t="s">
+        <v>483</v>
+      </c>
+      <c r="C205" t="s">
+        <v>72</v>
+      </c>
+      <c r="D205" t="s">
+        <v>486</v>
+      </c>
+      <c r="E205" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B206" t="s">
+        <v>483</v>
+      </c>
+      <c r="C206" t="s">
+        <v>72</v>
+      </c>
+      <c r="D206" t="s">
+        <v>486</v>
+      </c>
+      <c r="E206" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/model_master.xlsx
+++ b/model_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\masterm\Master_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBAF11-1530-433D-9A20-47961B4673E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78D322E-C36E-4615-B323-78E04108F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="2535" windowWidth="17040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12795" yWindow="810" windowWidth="20985" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="491">
   <si>
     <t>모델명</t>
   </si>
@@ -1525,6 +1525,12 @@
   <si>
     <t>확인중</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-R-MSK-2095</t>
+  </si>
+  <si>
+    <t>XU101022-25013</t>
   </si>
 </sst>
 </file>
@@ -1961,11 +1967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4295,6 +4301,23 @@
       </c>
       <c r="E206" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>2095</v>
+      </c>
+      <c r="B207" t="s">
+        <v>489</v>
+      </c>
+      <c r="C207" t="s">
+        <v>72</v>
+      </c>
+      <c r="D207" t="s">
+        <v>490</v>
+      </c>
+      <c r="E207" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
